--- a/results/results_carbon_sources.xlsx
+++ b/results/results_carbon_sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC390" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC431" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC464" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC644" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="iCC389" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="iCC431" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="iCC470" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="iCC651" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1334525431033368</v>
+        <v>0.1334525431033355</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1499974129726109</v>
+        <v>0.149997412972611</v>
       </c>
     </row>
     <row r="8">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1169076732340618</v>
+        <v>0.1169076732340626</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03418332388769067</v>
+        <v>0.03418332388769043</v>
       </c>
     </row>
     <row r="11">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.149997412972611</v>
+        <v>0.1499974129726072</v>
       </c>
     </row>
     <row r="12">
@@ -551,11 +551,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1499974129726097</v>
+        <v>0.1499974129726087</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9599355516605041</v>
+        <v>0.9599355516605008</v>
       </c>
     </row>
     <row r="3">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604995</v>
       </c>
     </row>
     <row r="4">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8009057833985571</v>
+        <v>0.8009057833985511</v>
       </c>
     </row>
     <row r="8">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8009057833985541</v>
+        <v>0.800905783398551</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.959935551660501</v>
+        <v>0.9599355516604984</v>
       </c>
     </row>
     <row r="11">
@@ -691,7 +691,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7515130259435355</v>
+        <v>0.7515130259435367</v>
       </c>
     </row>
     <row r="3">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8028664160496787</v>
+        <v>0.8028664160496785</v>
       </c>
     </row>
     <row r="4">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8028664160496783</v>
+        <v>0.8028664160496776</v>
       </c>
     </row>
     <row r="5">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8028664160496785</v>
+        <v>0.8028664160496781</v>
       </c>
     </row>
     <row r="6">
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7663263976831839</v>
+        <v>0.766326397683184</v>
       </c>
     </row>
     <row r="7">
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7001596358373948</v>
+        <v>0.7001596358373952</v>
       </c>
     </row>
     <row r="9">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4433926853066874</v>
+        <v>0.4433926853066865</v>
       </c>
     </row>
     <row r="11">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4536865487071339</v>
+        <v>0.4536865487071338</v>
       </c>
     </row>
     <row r="13">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8028664160496785</v>
+        <v>0.8028664160496781</v>
       </c>
     </row>
     <row r="14">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8028664160496786</v>
+        <v>0.8028664160496787</v>
       </c>
     </row>
     <row r="15">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8028664160496785</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="16">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5974528556251119</v>
+        <v>0.5974528556251114</v>
       </c>
     </row>
     <row r="17">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8078765028893021</v>
+        <v>0.8078765028893019</v>
       </c>
     </row>
     <row r="18">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.374196821333598</v>
+        <v>0.3741968213335981</v>
       </c>
     </row>
     <row r="19">
@@ -897,7 +897,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3271859081414915</v>
+        <v>0.332754769563311</v>
       </c>
     </row>
     <row r="3">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.05043421551599262</v>
       </c>
     </row>
     <row r="4">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3074127812583959</v>
+        <v>0.3167956982730797</v>
       </c>
     </row>
     <row r="5">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="6">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2985592094045659</v>
+        <v>0.3092868722039628</v>
       </c>
     </row>
     <row r="7">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730808</v>
       </c>
     </row>
     <row r="8">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2985592094045659</v>
+        <v>0.3092868722039628</v>
       </c>
     </row>
     <row r="9">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2985592094045659</v>
+        <v>0.3092868722039628</v>
       </c>
     </row>
     <row r="10">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1690008930767118</v>
+        <v>0.2050821992414801</v>
       </c>
     </row>
     <row r="11">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.327185908141493</v>
+        <v>0.3327547695633093</v>
       </c>
     </row>
     <row r="12">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.169027627168418</v>
+        <v>0.2050821992414801</v>
       </c>
     </row>
     <row r="13">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3271859081414919</v>
+        <v>0.3327547695633112</v>
       </c>
     </row>
     <row r="14">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3271859081414915</v>
+        <v>0.3327547695633093</v>
       </c>
     </row>
     <row r="15">
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2480934006091017</v>
+        <v>0.2689184844023939</v>
       </c>
     </row>
     <row r="16">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2166543853578342</v>
+        <v>0.2884930403580109</v>
       </c>
     </row>
     <row r="17">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.05043421551599279</v>
       </c>
     </row>
     <row r="18">
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2985592094045662</v>
+        <v>0.3092868722039629</v>
       </c>
     </row>
     <row r="19">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3074127812583927</v>
+        <v>0.3167956982730797</v>
       </c>
     </row>
     <row r="20">
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.05043421551599279</v>
       </c>
     </row>
     <row r="21">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1065226549871474</v>
+        <v>0.1534788460993879</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>